--- a/data/trans_bre/P5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,85</t>
+          <t>-1,35; 9,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 7,29</t>
+          <t>-5,93; 7,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,46</t>
+          <t>-8,64; 5,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 16,08</t>
+          <t>-2,12; 15,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 37,71</t>
+          <t>-4,11; 37,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 21,98</t>
+          <t>-14,85; 21,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 17,11</t>
+          <t>-22,82; 16,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 120,13</t>
+          <t>-9,18; 114,59</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,28</t>
+          <t>-0,5; 9,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,36</t>
+          <t>-7,18; 3,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,96</t>
+          <t>-4,16; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 9,1</t>
+          <t>-2,93; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 36,89</t>
+          <t>-1,72; 37,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 11,55</t>
+          <t>-17,2; 9,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 23,46</t>
+          <t>-10,51; 22,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 67,47</t>
+          <t>-14,05; 71,86</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,31</t>
+          <t>1,85; 12,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 7,64</t>
+          <t>-3,1; 8,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,89</t>
+          <t>-1,19; 9,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 2,61</t>
+          <t>-7,49; 2,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 47,95</t>
+          <t>6,21; 48,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 21,23</t>
+          <t>-7,69; 23,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 28,9</t>
+          <t>-3,32; 30,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 13,9</t>
+          <t>-30,96; 11,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 8,63</t>
+          <t>-2,24; 9,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 9,25</t>
+          <t>-3,17; 9,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,89</t>
+          <t>-4,83; 5,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,83</t>
+          <t>-2,8; 6,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 28,44</t>
+          <t>-6,15; 33,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 25,38</t>
+          <t>-7,56; 26,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 16,28</t>
+          <t>-11,61; 15,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 43,52</t>
+          <t>-12,37; 43,18</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 13,31</t>
+          <t>-0,23; 12,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 2,6</t>
+          <t>-11,69; 2,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 6,42</t>
+          <t>-6,22; 6,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 8,63</t>
+          <t>0,47; 8,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 49,82</t>
+          <t>0,18; 48,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 6,43</t>
+          <t>-26,03; 6,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 19,39</t>
+          <t>-15,39; 20,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 59,7</t>
+          <t>2,91; 59,78</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 8,86</t>
+          <t>-1,19; 9,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,88</t>
+          <t>-7,62; 4,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,07</t>
+          <t>-6,55; 3,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 28,48</t>
+          <t>-1,02; 32,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 36,4</t>
+          <t>-3,77; 39,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 13,15</t>
+          <t>-17,07; 11,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 13,05</t>
+          <t>-17,62; 11,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 188,0</t>
+          <t>-5,95; 214,27</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,96</t>
+          <t>2,69; 7,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,37</t>
+          <t>-2,2; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,88</t>
+          <t>-1,57; 2,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 12,86</t>
+          <t>0,94; 11,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,29; 24,77</t>
+          <t>8,83; 25,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,19</t>
+          <t>-5,41; 6,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 8,25</t>
+          <t>-4,25; 8,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 73,1</t>
+          <t>4,73; 65,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 9,82</t>
+          <t>-2,36; 10,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,03</t>
+          <t>-5,2; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 5,14</t>
+          <t>-8,13; 5,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 37,8</t>
+          <t>-7,52; 37,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 21,69</t>
+          <t>-13,53; 21,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 16,34</t>
+          <t>-22,02; 17,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 9,43</t>
+          <t>-1,19; 8,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 3,68</t>
+          <t>-7,04; 4,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 7,54</t>
+          <t>-4,31; 7,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 37,45</t>
+          <t>-3,86; 34,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 9,8</t>
+          <t>-16,75; 11,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 22,46</t>
+          <t>-10,86; 21,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 12,79</t>
+          <t>2,52; 12,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 8,25</t>
+          <t>-3,55; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,45</t>
+          <t>-1,07; 9,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 48,33</t>
+          <t>7,6; 48,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 23,1</t>
+          <t>-8,46; 20,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 30,59</t>
+          <t>-2,7; 30,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 9,54</t>
+          <t>-2,64; 9,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 9,66</t>
+          <t>-2,57; 9,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 5,77</t>
+          <t>-5,75; 5,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 33,45</t>
+          <t>-7,6; 30,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 26,21</t>
+          <t>-5,83; 25,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 15,77</t>
+          <t>-13,53; 15,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 12,8</t>
+          <t>-0,42; 13,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 2,75</t>
+          <t>-10,7; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,86</t>
+          <t>-6,66; 6,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 48,15</t>
+          <t>-1,57; 48,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 6,35</t>
+          <t>-22,67; 7,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 20,17</t>
+          <t>-16,38; 20,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,68</t>
+          <t>-1,16; 9,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 4,36</t>
+          <t>-7,3; 4,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,74</t>
+          <t>-6,54; 3,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 39,13</t>
+          <t>-3,74; 37,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 11,8</t>
+          <t>-16,3; 11,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 11,68</t>
+          <t>-17,98; 11,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,26</t>
+          <t>2,72; 7,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,46</t>
+          <t>-2,25; 2,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,92</t>
+          <t>-1,64; 2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 25,46</t>
+          <t>8,81; 25,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,32</t>
+          <t>-5,62; 6,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,43</t>
+          <t>-4,49; 8,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 10,27</t>
+          <t>-1,28; 9,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 7,15</t>
+          <t>-5,44; 7,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 5,4</t>
+          <t>-8,06; 5,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 15,98</t>
+          <t>-2,86; 16,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 37,74</t>
+          <t>-3,87; 37,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 21,21</t>
+          <t>-14,29; 21,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 17,11</t>
+          <t>-20,88; 17,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 114,59</t>
+          <t>-13,03; 120,13</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 8,9</t>
+          <t>-0,88; 9,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,41</t>
+          <t>-6,59; 4,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,17</t>
+          <t>-3,95; 7,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 9,67</t>
+          <t>-3,27; 9,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 34,89</t>
+          <t>-2,9; 36,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 11,95</t>
+          <t>-15,47; 11,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 21,3</t>
+          <t>-10,05; 23,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 71,86</t>
+          <t>-15,68; 67,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 12,9</t>
+          <t>2,39; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,55</t>
+          <t>-3,06; 7,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 9,49</t>
+          <t>-1,08; 8,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,22</t>
+          <t>-7,15; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 48,56</t>
+          <t>6,97; 47,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 20,97</t>
+          <t>-7,55; 21,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 30,91</t>
+          <t>-2,85; 28,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 11,73</t>
+          <t>-30,49; 13,9</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 9,17</t>
+          <t>-2,89; 8,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 9,4</t>
+          <t>-2,46; 9,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 5,88</t>
+          <t>-5,65; 5,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,82</t>
+          <t>-2,98; 6,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 30,9</t>
+          <t>-8,34; 28,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 25,54</t>
+          <t>-5,98; 25,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 15,88</t>
+          <t>-13,26; 16,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 43,18</t>
+          <t>-13,21; 43,52</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 13,12</t>
+          <t>-0,83; 13,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 3,19</t>
+          <t>-11,31; 2,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,93</t>
+          <t>-6,41; 6,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,39</t>
+          <t>0,43; 8,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 48,14</t>
+          <t>-2,7; 49,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 7,76</t>
+          <t>-24,44; 6,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 20,57</t>
+          <t>-15,81; 19,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 59,78</t>
+          <t>1,94; 59,7</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,44</t>
+          <t>-1,16; 8,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 4,23</t>
+          <t>-6,95; 4,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 3,6</t>
+          <t>-6,87; 4,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 32,95</t>
+          <t>-0,94; 28,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 37,97</t>
+          <t>-3,75; 36,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 11,54</t>
+          <t>-16,16; 13,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 11,18</t>
+          <t>-18,71; 13,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 214,27</t>
+          <t>-6,18; 188,0</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,25</t>
+          <t>2,5; 6,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,51</t>
+          <t>-2,15; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,98</t>
+          <t>-1,76; 2,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,92</t>
+          <t>0,92; 12,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 25,37</t>
+          <t>8,29; 24,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 6,59</t>
+          <t>-5,26; 6,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,36</t>
+          <t>-4,78; 8,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 65,43</t>
+          <t>4,85; 73,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>42,17%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 16,08</t>
+          <t>-2,97; 16,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 120,13</t>
+          <t>-12,5; 128,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 9,1</t>
+          <t>-7,93; 6,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 67,47</t>
+          <t>-36,97; 46,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-14,28%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 2,61</t>
+          <t>-8,99; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 13,9</t>
+          <t>-38,25; 7,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>29,43%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,83</t>
+          <t>-3,14; 14,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 43,52</t>
+          <t>-14,55; 203,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>27,38%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 8,63</t>
+          <t>0,4; 8,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 59,7</t>
+          <t>1,82; 59,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>27,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-5,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>156,26%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 8,86</t>
+          <t>-0,89; 13,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,88</t>
+          <t>-11,7; 4,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,07</t>
+          <t>-9,45; 5,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 28,48</t>
+          <t>-1,48; 62,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 36,4</t>
+          <t>-2,55; 56,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 13,15</t>
+          <t>-23,96; 10,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 13,05</t>
+          <t>-21,38; 16,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 188,0</t>
+          <t>-9,54; 410,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-7,03; 8,8</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 9,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 7,44</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 5,19</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-20,87; 38,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 29,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-20,92; 28,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 42,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,5; 6,96</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,15; 2,37</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,76; 2,88</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 12,86</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 21,69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8,29; 24,77</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-5,26; 6,19</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-4,78; 8,25</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 73,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 132,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
